--- a/Results/Sentiwordnet/beda-PRICES.xlsx
+++ b/Results/Sentiwordnet/beda-PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -34,46 +34,172 @@
     <t>predict2</t>
   </si>
   <si>
+    <t>1086415:2</t>
+  </si>
+  <si>
     <t>1221938:0</t>
   </si>
   <si>
+    <t>1338124:2</t>
+  </si>
+  <si>
+    <t>1398844:3</t>
+  </si>
+  <si>
+    <t>1490757:2</t>
+  </si>
+  <si>
+    <t>1609375:3</t>
+  </si>
+  <si>
     <t>1615322:2</t>
   </si>
   <si>
     <t>1655504:4</t>
   </si>
   <si>
+    <t>1727363:1</t>
+  </si>
+  <si>
+    <t>490565:4</t>
+  </si>
+  <si>
+    <t>498657:2</t>
+  </si>
+  <si>
+    <t>507937:2</t>
+  </si>
+  <si>
     <t>527109:3</t>
   </si>
   <si>
+    <t>751493:0</t>
+  </si>
+  <si>
+    <t>NP#3:6</t>
+  </si>
+  <si>
     <t>TM#5:3</t>
   </si>
   <si>
+    <t>BG#5:7</t>
+  </si>
+  <si>
+    <t>Z#6:5</t>
+  </si>
+  <si>
+    <t>BFC#7:11</t>
+  </si>
+  <si>
+    <t>BHD#8:1</t>
+  </si>
+  <si>
+    <t>$6 and there is much tasty food, all of it fresh and continually refilled.</t>
+  </si>
+  <si>
     <t>the drinks are always welll made and wine selection is fairly priced.</t>
   </si>
   <si>
+    <t>the spicy tuna roll is huge and probably the best that i've had at this price range.</t>
+  </si>
+  <si>
+    <t>slightly above average wines start at $70+ with only one selection listed at $30+.</t>
+  </si>
+  <si>
+    <t>the prices were cheap compared to the quality of service and food.</t>
+  </si>
+  <si>
+    <t>try the pad thai, it's fabulous and their prices are so cheap!</t>
+  </si>
+  <si>
     <t>they have authentic indian at amazin prices.</t>
   </si>
   <si>
     <t>wine list is extensive without being over-priced.</t>
   </si>
   <si>
+    <t>this is a wonderful place on all stand points especially value ofr money.</t>
+  </si>
+  <si>
+    <t>you can get a completely delish martini in a glass (that's about 2 1/2 drinks) for $8.50 (i recommend the vanilla shanty, mmmm!) in a great homey setting with great music.</t>
+  </si>
+  <si>
+    <t>the rest of the dim sum, though pricey by chinatown standards, is worth it.</t>
+  </si>
+  <si>
+    <t>spreads and toppings are great - though a bit pricey.</t>
+  </si>
+  <si>
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
+    <t>i am relatively new to the area and tried pick a bgel on 2nd and was disappointed with the service and i thought the food was overated and on the pricey side.</t>
+  </si>
+  <si>
+    <t>prices are fair across the board for both food and bev.</t>
+  </si>
+  <si>
     <t>helpful service and average price per dish $10.</t>
   </si>
   <si>
+    <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
+  </si>
+  <si>
+    <t>my party had the bbe $29 fixe prix menu, which was such a wonderful deal since it also came with a flight of sake!</t>
+  </si>
+  <si>
+    <t>considering you will spend at least $60 a head, i expect better service.</t>
+  </si>
+  <si>
+    <t>at first glance this place seems a bit pricey for a hot dog joint, but at bark you don't just get your average hot dog.</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>welll</t>
   </si>
   <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>average|average</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>indian</t>
   </si>
   <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>average</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>delish</t>
+  </si>
+  <si>
+    <t>pricey|worth</t>
+  </si>
+  <si>
+    <t>great|pricey</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>positive</t>
@@ -437,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,19 +597,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -494,19 +620,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,19 +643,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -540,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,19 +689,364 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
